--- a/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
+++ b/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\david\packages\nomenclature\tests\data\region_processing\region_aggregation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC933CE-F6A5-4439-84D3-06B6E87060D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model"/>
-    <sheet r:id="rId2" sheetId="2" name="Common-Region-Mapping"/>
-    <sheet r:id="rId3" sheetId="3" name="User"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Common-Region-Mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Region-Country-Mapping" sheetId="4" r:id="rId3"/>
+    <sheet name="User" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="954">
   <si>
     <t xml:space="preserve">Please fill in the cells highlighted with yellow. </t>
   </si>
@@ -110,14 +117,2783 @@
   </si>
   <si>
     <t>https://semver.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please fill in the cells highlighted with yellow. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Country name</t>
+  </si>
+  <si>
+    <t>Alternative (official) country name</t>
+  </si>
+  <si>
+    <t>ISO3 code</t>
+  </si>
+  <si>
+    <t>ISO2 code</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Arab Republic of Egypt</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Republic of Albania</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>People's Democratic Republic of Algeria</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Principality of Andorra</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Republic of Angola</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Argentine Republic</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Republic of Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Republic of Austria</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Commonwealth of the Bahamas</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kingdom of Bahrain</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>People's Republic of Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Republic of Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Kingdom of Belgium</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Republic of Benin</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Kingdom of Bhutan</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Plurinational State of Bolivia</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Republic of Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Republic of Botswana</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Federative Republic of Brazil</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Republic of Bulgaria</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Republic of Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Republic of Cabo Verde</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kingdom of Cambodia</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Republic of Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Republic of Chad</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Republic of Chile</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>People's Republic of China</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Republic of Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Union of the Comoros</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Republic of Costa Rica</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Republic of Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Republic of Croatia</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Republic of Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Republic of Cyprus</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Kingdom of Denmark</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Republic of Djibouti</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Commonwealth of Dominica</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Republic of Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Republic of El Salvador</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Republic of Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>the State of Eritrea</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Republic of Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Republic of Fiji</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Republic of Finland</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Republic</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gabonese Republic</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Republic of the Gambia</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Federal Republic of Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Republic of Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hellenic Republic</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Republic of Guatemala</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Republic of Guinea</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Republic of Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Republic of Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Republic of Haiti</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Republic of Honduras</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Republic of Iceland</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Republic of India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Republic of Indonesia</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Republic of Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>State of Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Italian Republic</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Hashemite Kingdom of Jordan</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Republic of Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Republic of Kenya</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Republic of Kiribati</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>KOS</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Kosovo does not have officially approved ISO 3166-1 codes, this list follows the conventions by the IOC (https://olympics.com/ioc/kosovo) and Wikipedia (https://en.wikipedia.org/wiki/XK_(user_assigned_code))</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>State of Kuwait</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Republic of Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lebanese Republic</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Kingdom of Lesotho</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Republic of Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Principality of Liechtenstein</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Republic of Lithuania</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Luxembourg</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macao Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Republic of Madagascar</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Republic of Malawi</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Republic of Maldives</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Republic of Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Republic of Malta</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Republic of the Marshall Islands</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Mauritania</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Republic of Mauritius</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>MYT</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>United Mexican States</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Principality of Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Kingdom of Morocco</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Republic of Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Republic of Myanmar</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Republic of Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Republic of Nauru</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Nepal</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Republic of Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Republic of the Niger</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Federal Republic of Nigeria</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Commonwealth of the Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Kingdom of Norway</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Sultanate of Oman</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Republic of Palau</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>the State of Palestine</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Republic of Panama</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Independent State of Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Republic of Paraguay</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Republic of Peru</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Republic of the Philippines</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Republic of Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Portuguese Republic</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>State of Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Rwandese Republic</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Independent State of Samoa</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Republic of San Marino</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Republic of Senegal</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Republic of Serbia</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Republic of Seychelles</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Republic of Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Republic of Singapore</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Republic of Slovenia</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Federal Republic of Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Republic of South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Kingdom of Spain</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Democratic Socialist Republic of Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Republic of the Sudan</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Republic of Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Kingdom of Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Swiss Confederation</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Republic of Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Kingdom of Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Timor-Leste</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Togolese Republic</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TKL</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Kingdom of Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Republic of Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Republic of Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Republic of Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Republic of Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Virgin Islands of the United States</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Eastern Republic of Uruguay</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Republic of Vanuatu</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Bolivarian Republic of Venezuela</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Socialist Republic of Viet Nam</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>WLF</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Republic of Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Republic of Zambia</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Republic of Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Country 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +2943,52 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,7 +2997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,73 +3024,90 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8B6936AF-7C1C-4CBC-81B0-FC56731C9D86}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,10 +3118,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -316,71 +3159,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,7 +3251,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -431,11 +3274,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -444,13 +3287,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -460,7 +3303,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -469,7 +3312,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,7 +3321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,10 +3329,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -554,55 +3397,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,55 +3447,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -672,25 +3501,23 @@
         <v>15</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -700,13 +3527,12 @@
         <v>21</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -714,13 +3540,12 @@
         <v>21</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -730,7 +3555,6 @@
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,7 +3562,3823 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940DB34-A3EE-45BC-AE85-667317387B02}">
+  <dimension ref="A1:I254"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="44.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="14">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16"/>
+      <c r="B80" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16"/>
+      <c r="B81" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="16"/>
+      <c r="B82" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16"/>
+      <c r="B84" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="16"/>
+      <c r="B85" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="16"/>
+      <c r="B88" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="16"/>
+      <c r="B89" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="16"/>
+      <c r="B90" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="16"/>
+      <c r="B91" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="16"/>
+      <c r="B92" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16"/>
+      <c r="B93" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="16"/>
+      <c r="B94" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="16"/>
+      <c r="B95" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="16"/>
+      <c r="B96" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16"/>
+      <c r="B99" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="16"/>
+      <c r="B101" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="16"/>
+      <c r="B102" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="16"/>
+      <c r="B103" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="16"/>
+      <c r="B104" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="16"/>
+      <c r="B105" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="16"/>
+      <c r="B106" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="16"/>
+      <c r="B107" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="16"/>
+      <c r="B108" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="16"/>
+      <c r="B110" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="16"/>
+      <c r="B113" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="16"/>
+      <c r="B116" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="16"/>
+      <c r="B117" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="16"/>
+      <c r="B118" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="16"/>
+      <c r="B119" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="16"/>
+      <c r="B120" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="16"/>
+      <c r="B121" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="16"/>
+      <c r="B122" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="16"/>
+      <c r="B123" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="16"/>
+      <c r="B124" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="16"/>
+      <c r="B125" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="16"/>
+      <c r="B126" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="16"/>
+      <c r="B127" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="16"/>
+      <c r="B128" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="16"/>
+      <c r="B129" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="16"/>
+      <c r="B130" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="16"/>
+      <c r="B131" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="16"/>
+      <c r="B132" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="16"/>
+      <c r="B133" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="16"/>
+      <c r="B134" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="16"/>
+      <c r="B135" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="16"/>
+      <c r="B136" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="16"/>
+      <c r="B137" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="16"/>
+      <c r="B138" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="16"/>
+      <c r="B140" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="16"/>
+      <c r="B142" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="16"/>
+      <c r="B143" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="16"/>
+      <c r="B144" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="16"/>
+      <c r="B145" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="16"/>
+      <c r="B146" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="16"/>
+      <c r="B147" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="16"/>
+      <c r="B148" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="16"/>
+      <c r="B149" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="16"/>
+      <c r="B150" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="16"/>
+      <c r="B151" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="16"/>
+      <c r="B152" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="16"/>
+      <c r="B153" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="16"/>
+      <c r="B155" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="16"/>
+      <c r="B156" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="16"/>
+      <c r="B157" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="16"/>
+      <c r="B158" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="16"/>
+      <c r="B159" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="16"/>
+      <c r="B160" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="16"/>
+      <c r="B161" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="16"/>
+      <c r="B162" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="16"/>
+      <c r="B163" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="16"/>
+      <c r="B164" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="16"/>
+      <c r="B165" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="16"/>
+      <c r="B166" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="16"/>
+      <c r="B167" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="16"/>
+      <c r="B168" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="16"/>
+      <c r="B169" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="16"/>
+      <c r="B170" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="16"/>
+      <c r="B171" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="16"/>
+      <c r="B172" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="16"/>
+      <c r="B173" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="16"/>
+      <c r="B174" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="16"/>
+      <c r="B175" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="16"/>
+      <c r="B176" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="16"/>
+      <c r="B177" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="E177" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="16"/>
+      <c r="B178" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="16"/>
+      <c r="B182" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="16"/>
+      <c r="B183" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="16"/>
+      <c r="B184" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="16"/>
+      <c r="B187" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="16"/>
+      <c r="B188" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="16"/>
+      <c r="B189" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="16"/>
+      <c r="B190" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="16"/>
+      <c r="B191" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="16"/>
+      <c r="B192" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="16"/>
+      <c r="B193" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="16"/>
+      <c r="B194" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="16"/>
+      <c r="B195" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="16"/>
+      <c r="B196" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="16"/>
+      <c r="B197" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="16"/>
+      <c r="B198" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="16"/>
+      <c r="B199" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="16"/>
+      <c r="B201" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="16"/>
+      <c r="B202" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="16"/>
+      <c r="B203" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="E203" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="16"/>
+      <c r="B204" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="16"/>
+      <c r="B205" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="16"/>
+      <c r="B206" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="16"/>
+      <c r="B207" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="16"/>
+      <c r="B208" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="16"/>
+      <c r="B209" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="16"/>
+      <c r="B210" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="16"/>
+      <c r="B211" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="16"/>
+      <c r="B212" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="16"/>
+      <c r="B213" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="16"/>
+      <c r="B214" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="16"/>
+      <c r="B215" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="16"/>
+      <c r="B216" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="16"/>
+      <c r="B217" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="E217" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="16"/>
+      <c r="B218" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E218" s="17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="16"/>
+      <c r="B219" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="16"/>
+      <c r="B220" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="16"/>
+      <c r="B221" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="16"/>
+      <c r="B222" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="16"/>
+      <c r="B223" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E223" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="16"/>
+      <c r="B224" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="16"/>
+      <c r="B225" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="16"/>
+      <c r="B226" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="16"/>
+      <c r="B227" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="16"/>
+      <c r="B228" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="16"/>
+      <c r="B229" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E229" s="17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="16"/>
+      <c r="B230" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="16"/>
+      <c r="B231" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="E231" s="17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="16"/>
+      <c r="B232" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E232" s="17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="16"/>
+      <c r="B233" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="E233" s="17" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="16"/>
+      <c r="B234" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="16"/>
+      <c r="B235" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E235" s="17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="16"/>
+      <c r="B236" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="16"/>
+      <c r="B237" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E237" s="17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="16"/>
+      <c r="B238" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="16"/>
+      <c r="B239" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E239" s="17" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="16"/>
+      <c r="B240" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="16"/>
+      <c r="B241" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="16"/>
+      <c r="B242" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="16"/>
+      <c r="B243" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="E243" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="16"/>
+      <c r="B244" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="16"/>
+      <c r="B245" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E245" s="17" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="16"/>
+      <c r="B246" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E246" s="17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="16"/>
+      <c r="B247" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="16"/>
+      <c r="B248" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="16"/>
+      <c r="B249" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="16"/>
+      <c r="B250" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="16"/>
+      <c r="B251" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="16"/>
+      <c r="B252" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="16"/>
+      <c r="B253" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="E253" s="17" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="16"/>
+      <c r="B254" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -746,43 +7386,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -796,9 +7424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -806,7 +7432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -816,55 +7442,55 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>

--- a/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
+++ b/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\david\packages\nomenclature\tests\data\region_processing\region_aggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC933CE-F6A5-4439-84D3-06B6E87060D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409A949-A80A-4308-B91A-7CF17E054C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="955">
   <si>
     <t xml:space="preserve">Please fill in the cells highlighted with yellow. </t>
   </si>
@@ -2887,6 +2887,9 @@
   </si>
   <si>
     <t>Country 1</t>
+  </si>
+  <si>
+    <t>Country 2</t>
   </si>
 </sst>
 </file>
@@ -3563,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940DB34-A3EE-45BC-AE85-667317387B02}">
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -3618,3756 +3621,3768 @@
       <c r="F4" s="15"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
+    <row r="5" spans="1:9" s="14" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="16"/>
       <c r="B42" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="16"/>
       <c r="B44" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="16"/>
       <c r="B49" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="16"/>
       <c r="B50" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="16"/>
       <c r="B51" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="16"/>
       <c r="B55" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="16"/>
       <c r="B57" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="16"/>
       <c r="B58" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16"/>
       <c r="B61" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="16"/>
       <c r="B62" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="16"/>
       <c r="B65" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="16"/>
       <c r="B67" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="16"/>
       <c r="B69" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="16"/>
       <c r="B71" s="17" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="16"/>
       <c r="B72" s="17" t="s">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="16"/>
       <c r="B73" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="16"/>
       <c r="B74" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="16"/>
       <c r="B75" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="16"/>
       <c r="B76" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="16"/>
       <c r="B77" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="16"/>
       <c r="B78" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="16"/>
       <c r="B79" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="16"/>
       <c r="B80" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="16"/>
       <c r="B81" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="16"/>
       <c r="B82" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="16"/>
       <c r="B83" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="16"/>
       <c r="B84" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="16"/>
       <c r="B85" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="16"/>
       <c r="B86" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="16"/>
       <c r="B87" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="16"/>
       <c r="B89" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="16"/>
       <c r="B90" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="16"/>
       <c r="B91" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="16"/>
       <c r="B92" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="16"/>
       <c r="B93" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="16"/>
       <c r="B94" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="16"/>
       <c r="B95" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="16"/>
       <c r="B96" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="16"/>
       <c r="B97" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="16"/>
       <c r="B98" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="16"/>
       <c r="B99" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="16"/>
       <c r="B100" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="16"/>
       <c r="B101" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="16"/>
       <c r="B102" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="16"/>
       <c r="B103" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="16"/>
       <c r="B104" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="16"/>
       <c r="B105" s="17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="16"/>
       <c r="B106" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="16"/>
       <c r="B107" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="16"/>
       <c r="B108" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="16"/>
       <c r="B109" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="16"/>
       <c r="B110" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="16"/>
       <c r="B111" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="16"/>
       <c r="B112" s="17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="16"/>
       <c r="B113" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="16"/>
       <c r="B114" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="16"/>
       <c r="B115" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="16"/>
       <c r="B116" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="16"/>
       <c r="B117" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="16"/>
       <c r="B118" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="16"/>
       <c r="B119" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="16"/>
       <c r="B120" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="16"/>
       <c r="B121" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="16"/>
       <c r="B122" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="16"/>
       <c r="B123" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="16"/>
       <c r="B124" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="16"/>
       <c r="B125" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="16"/>
       <c r="B126" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="16"/>
       <c r="B127" s="17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="16"/>
       <c r="B128" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="16"/>
       <c r="B129" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="16"/>
       <c r="B130" s="17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="16"/>
       <c r="B131" s="17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="16"/>
       <c r="B132" s="17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="16"/>
       <c r="B133" s="17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="16"/>
       <c r="B134" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="16"/>
       <c r="B135" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="16"/>
       <c r="B136" s="17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="16"/>
       <c r="B137" s="17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="16"/>
       <c r="B138" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="16"/>
       <c r="B139" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="16"/>
       <c r="B140" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="16"/>
       <c r="B141" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="16"/>
       <c r="B142" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="16"/>
       <c r="B143" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="16"/>
       <c r="B144" s="17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="16"/>
       <c r="B145" s="17" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="16"/>
       <c r="B146" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="16"/>
       <c r="B147" s="17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="16"/>
       <c r="B148" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="16"/>
       <c r="B150" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="16"/>
       <c r="B151" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="16"/>
       <c r="B152" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="16"/>
       <c r="B153" s="17" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="16"/>
       <c r="B154" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="16"/>
       <c r="B155" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="16"/>
       <c r="B156" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="16"/>
       <c r="B157" s="17" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="16"/>
       <c r="B158" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="16"/>
       <c r="B159" s="17" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="16"/>
       <c r="B160" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="16"/>
       <c r="B161" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="16"/>
       <c r="B162" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="16"/>
       <c r="B163" s="17" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="16"/>
       <c r="B164" s="17" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="16"/>
       <c r="B165" s="17" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="16"/>
       <c r="B166" s="17" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="16"/>
       <c r="B167" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="16"/>
       <c r="B168" s="17" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="16"/>
       <c r="B169" s="17" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="16"/>
       <c r="B170" s="17" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="16"/>
       <c r="B171" s="17" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="16"/>
       <c r="B172" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="16"/>
       <c r="B173" s="17" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="16"/>
       <c r="B174" s="17" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="16"/>
       <c r="B175" s="17" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="16"/>
       <c r="B176" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="16"/>
       <c r="B177" s="17" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="16"/>
       <c r="B178" s="17" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="16"/>
       <c r="B179" s="17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="16"/>
       <c r="B180" s="17" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="16"/>
       <c r="B181" s="17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="16"/>
       <c r="B182" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="16"/>
       <c r="B183" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="16"/>
       <c r="B184" s="17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="16"/>
       <c r="B185" s="17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="16"/>
       <c r="B186" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="16"/>
       <c r="B187" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="16"/>
       <c r="B188" s="17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="16"/>
       <c r="B189" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="16"/>
       <c r="B190" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="16"/>
       <c r="B191" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="16"/>
       <c r="B192" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="16"/>
       <c r="B193" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="16"/>
       <c r="B194" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="16"/>
       <c r="B195" s="17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="16"/>
       <c r="B196" s="17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="16"/>
       <c r="B197" s="17" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="16"/>
       <c r="B198" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="16"/>
       <c r="B199" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="16"/>
       <c r="B200" s="17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="16"/>
       <c r="B201" s="17" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="16"/>
       <c r="B202" s="17" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="16"/>
       <c r="B203" s="17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="16"/>
       <c r="B204" s="17" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="16"/>
       <c r="B205" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="16"/>
       <c r="B206" s="17" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="16"/>
       <c r="B207" s="17" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="16"/>
       <c r="B208" s="17" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="16"/>
       <c r="B209" s="17" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="16"/>
       <c r="B210" s="17" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="16"/>
       <c r="B211" s="17" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="16"/>
       <c r="B212" s="17" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="16"/>
       <c r="B213" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="16"/>
       <c r="B214" s="17" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="16"/>
       <c r="B215" s="17" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="16"/>
       <c r="B216" s="17" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="16"/>
       <c r="B217" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="16"/>
       <c r="B218" s="17" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="16"/>
       <c r="B219" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="16"/>
       <c r="B220" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="16"/>
       <c r="B221" s="17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="16"/>
       <c r="B222" s="17" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="16"/>
       <c r="B223" s="17" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="16"/>
       <c r="B224" s="17" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="16"/>
       <c r="B225" s="17" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="16"/>
       <c r="B226" s="17" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="16"/>
       <c r="B227" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="16"/>
       <c r="B228" s="17" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="16"/>
       <c r="B229" s="17" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="16"/>
       <c r="B230" s="17" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="16"/>
       <c r="B231" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="16"/>
       <c r="B232" s="17" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="16"/>
       <c r="B233" s="17" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="16"/>
       <c r="B234" s="17" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="16"/>
       <c r="B235" s="17" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="16"/>
       <c r="B236" s="17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="16"/>
       <c r="B237" s="17" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="16"/>
       <c r="B238" s="17" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="16"/>
       <c r="B239" s="17" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="16"/>
       <c r="B240" s="17" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="16"/>
       <c r="B241" s="17" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="16"/>
       <c r="B242" s="17" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="16"/>
       <c r="B243" s="17" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="16"/>
       <c r="B244" s="17" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="16"/>
       <c r="B245" s="17" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="16"/>
       <c r="B246" s="17" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="16"/>
       <c r="B247" s="17" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="16"/>
       <c r="B248" s="17" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="16"/>
       <c r="B249" s="17" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="16"/>
       <c r="B250" s="17" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="16"/>
       <c r="B251" s="17" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="16"/>
       <c r="B252" s="17" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="16"/>
       <c r="B253" s="17" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="16"/>
       <c r="B254" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="16"/>
+      <c r="B255" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C255" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="D254" s="17" t="s">
+      <c r="D255" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="E254" s="17" t="s">
+      <c r="E255" s="17" t="s">
         <v>952</v>
       </c>
     </row>

--- a/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
+++ b/tests/data/region_processing/region_aggregation/excel_model_registration.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\david\packages\nomenclature\tests\data\region_processing\region_aggregation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409A949-A80A-4308-B91A-7CF17E054C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model"/>
-    <sheet r:id="rId2" sheetId="2" name="Common-Region-Mapping"/>
-    <sheet r:id="rId3" sheetId="3" name="User"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Common-Region-Mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Region-Country-Mapping" sheetId="4" r:id="rId3"/>
+    <sheet name="User" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="955">
   <si>
     <t xml:space="preserve">Please fill in the cells highlighted with yellow. </t>
   </si>
@@ -110,14 +117,2786 @@
   </si>
   <si>
     <t>https://semver.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please fill in the cells highlighted with yellow. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Country name</t>
+  </si>
+  <si>
+    <t>Alternative (official) country name</t>
+  </si>
+  <si>
+    <t>ISO3 code</t>
+  </si>
+  <si>
+    <t>ISO2 code</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Arab Republic of Egypt</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Republic of Albania</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>People's Democratic Republic of Algeria</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Principality of Andorra</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Republic of Angola</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Argentine Republic</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Republic of Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Republic of Austria</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Commonwealth of the Bahamas</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kingdom of Bahrain</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>People's Republic of Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Republic of Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Kingdom of Belgium</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Republic of Benin</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Kingdom of Bhutan</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Plurinational State of Bolivia</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Republic of Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Republic of Botswana</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Federative Republic of Brazil</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Republic of Bulgaria</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Republic of Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Republic of Cabo Verde</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kingdom of Cambodia</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Republic of Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Republic of Chad</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Republic of Chile</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>People's Republic of China</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Republic of Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Union of the Comoros</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Republic of Costa Rica</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Republic of Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Republic of Croatia</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Republic of Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Republic of Cyprus</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Kingdom of Denmark</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Republic of Djibouti</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Commonwealth of Dominica</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Republic of Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Republic of El Salvador</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Republic of Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>the State of Eritrea</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Republic of Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Republic of Fiji</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Republic of Finland</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Republic</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gabonese Republic</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Republic of the Gambia</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Federal Republic of Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Republic of Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hellenic Republic</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Republic of Guatemala</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Republic of Guinea</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Republic of Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Republic of Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Republic of Haiti</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Republic of Honduras</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Republic of Iceland</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Republic of India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Republic of Indonesia</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Republic of Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>State of Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Italian Republic</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Hashemite Kingdom of Jordan</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Republic of Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Republic of Kenya</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Republic of Kiribati</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>KOS</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Kosovo does not have officially approved ISO 3166-1 codes, this list follows the conventions by the IOC (https://olympics.com/ioc/kosovo) and Wikipedia (https://en.wikipedia.org/wiki/XK_(user_assigned_code))</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>State of Kuwait</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Republic of Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lebanese Republic</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Kingdom of Lesotho</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Republic of Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Principality of Liechtenstein</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Republic of Lithuania</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Luxembourg</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macao Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Republic of Madagascar</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Republic of Malawi</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Republic of Maldives</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Republic of Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Republic of Malta</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Republic of the Marshall Islands</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Mauritania</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Republic of Mauritius</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>MYT</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>United Mexican States</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Principality of Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Kingdom of Morocco</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Republic of Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Republic of Myanmar</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Republic of Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Republic of Nauru</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Nepal</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Republic of Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Republic of the Niger</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Federal Republic of Nigeria</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Commonwealth of the Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Kingdom of Norway</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Sultanate of Oman</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamic Republic of Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Republic of Palau</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>the State of Palestine</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Republic of Panama</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Independent State of Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Republic of Paraguay</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Republic of Peru</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Republic of the Philippines</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Republic of Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Portuguese Republic</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>State of Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Rwandese Republic</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Independent State of Samoa</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Republic of San Marino</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Republic of Senegal</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Republic of Serbia</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Republic of Seychelles</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Republic of Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Republic of Singapore</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Republic of Slovenia</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Federal Republic of Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Republic of South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Kingdom of Spain</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Democratic Socialist Republic of Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Republic of the Sudan</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Republic of Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Kingdom of Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Swiss Confederation</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Republic of Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Kingdom of Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Timor-Leste</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Togolese Republic</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TKL</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Kingdom of Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Republic of Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Republic of Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Republic of Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Republic of Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Virgin Islands of the United States</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Eastern Republic of Uruguay</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Republic of Vanuatu</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Bolivarian Republic of Venezuela</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Socialist Republic of Viet Nam</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>WLF</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Republic of Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Republic of Zambia</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Republic of Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Country 1</t>
+  </si>
+  <si>
+    <t>Country 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +2946,52 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,7 +3000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,73 +3027,90 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8B6936AF-7C1C-4CBC-81B0-FC56731C9D86}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,10 +3121,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -316,71 +3162,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,7 +3254,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -431,11 +3277,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -444,13 +3290,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -460,7 +3306,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -469,7 +3315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,7 +3324,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,10 +3332,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -554,55 +3400,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,55 +3450,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -672,25 +3504,23 @@
         <v>15</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -700,13 +3530,12 @@
         <v>21</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -714,13 +3543,12 @@
         <v>21</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -730,7 +3558,6 @@
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,7 +3565,3835 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940DB34-A3EE-45BC-AE85-667317387B02}">
+  <dimension ref="A1:I255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="44.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="14">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16"/>
+      <c r="B80" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16"/>
+      <c r="B81" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="16"/>
+      <c r="B82" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16"/>
+      <c r="B84" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="16"/>
+      <c r="B85" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="16"/>
+      <c r="B88" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="16"/>
+      <c r="B89" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="16"/>
+      <c r="B90" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="16"/>
+      <c r="B91" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="16"/>
+      <c r="B92" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16"/>
+      <c r="B93" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="16"/>
+      <c r="B94" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="16"/>
+      <c r="B95" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="16"/>
+      <c r="B96" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16"/>
+      <c r="B99" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="16"/>
+      <c r="B101" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="16"/>
+      <c r="B102" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="16"/>
+      <c r="B103" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="16"/>
+      <c r="B104" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="16"/>
+      <c r="B105" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="16"/>
+      <c r="B106" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="16"/>
+      <c r="B107" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="16"/>
+      <c r="B108" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="16"/>
+      <c r="B110" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="16"/>
+      <c r="B113" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="16"/>
+      <c r="B116" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="16"/>
+      <c r="B117" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="16"/>
+      <c r="B118" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="16"/>
+      <c r="B119" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="16"/>
+      <c r="B120" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="16"/>
+      <c r="B121" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="16"/>
+      <c r="B122" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="16"/>
+      <c r="B123" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="16"/>
+      <c r="B124" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="16"/>
+      <c r="B125" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="16"/>
+      <c r="B126" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="16"/>
+      <c r="B127" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="16"/>
+      <c r="B128" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="16"/>
+      <c r="B129" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="16"/>
+      <c r="B130" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="16"/>
+      <c r="B131" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="16"/>
+      <c r="B132" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="16"/>
+      <c r="B133" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="16"/>
+      <c r="B134" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="16"/>
+      <c r="B135" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="16"/>
+      <c r="B136" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="16"/>
+      <c r="B137" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="16"/>
+      <c r="B138" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="16"/>
+      <c r="B140" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="16"/>
+      <c r="B142" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="16"/>
+      <c r="B143" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="16"/>
+      <c r="B144" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="16"/>
+      <c r="B145" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="16"/>
+      <c r="B146" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="16"/>
+      <c r="B147" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="16"/>
+      <c r="B148" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="16"/>
+      <c r="B149" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="16"/>
+      <c r="B150" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="16"/>
+      <c r="B151" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="16"/>
+      <c r="B152" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="16"/>
+      <c r="B153" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="16"/>
+      <c r="B155" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="16"/>
+      <c r="B156" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="16"/>
+      <c r="B157" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="16"/>
+      <c r="B158" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="16"/>
+      <c r="B159" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="16"/>
+      <c r="B160" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="16"/>
+      <c r="B161" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="16"/>
+      <c r="B162" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="16"/>
+      <c r="B163" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="16"/>
+      <c r="B164" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="16"/>
+      <c r="B165" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="16"/>
+      <c r="B166" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="16"/>
+      <c r="B167" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="16"/>
+      <c r="B168" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="16"/>
+      <c r="B169" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="16"/>
+      <c r="B170" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="16"/>
+      <c r="B171" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="16"/>
+      <c r="B172" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="16"/>
+      <c r="B173" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="16"/>
+      <c r="B174" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="16"/>
+      <c r="B175" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="16"/>
+      <c r="B176" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="16"/>
+      <c r="B177" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="E177" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="16"/>
+      <c r="B178" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="16"/>
+      <c r="B182" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="16"/>
+      <c r="B183" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="16"/>
+      <c r="B184" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="16"/>
+      <c r="B187" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="16"/>
+      <c r="B188" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="16"/>
+      <c r="B189" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="16"/>
+      <c r="B190" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="16"/>
+      <c r="B191" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="16"/>
+      <c r="B192" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="16"/>
+      <c r="B193" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="16"/>
+      <c r="B194" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="16"/>
+      <c r="B195" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="16"/>
+      <c r="B196" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="16"/>
+      <c r="B197" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="16"/>
+      <c r="B198" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="16"/>
+      <c r="B199" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="16"/>
+      <c r="B201" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="16"/>
+      <c r="B202" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="16"/>
+      <c r="B203" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="E203" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="16"/>
+      <c r="B204" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="16"/>
+      <c r="B205" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="16"/>
+      <c r="B206" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="16"/>
+      <c r="B207" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="16"/>
+      <c r="B208" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="16"/>
+      <c r="B209" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="16"/>
+      <c r="B210" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="16"/>
+      <c r="B211" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="16"/>
+      <c r="B212" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="16"/>
+      <c r="B213" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="16"/>
+      <c r="B214" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="16"/>
+      <c r="B215" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="16"/>
+      <c r="B216" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="16"/>
+      <c r="B217" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="E217" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="16"/>
+      <c r="B218" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="E218" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="16"/>
+      <c r="B219" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="16"/>
+      <c r="B220" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="16"/>
+      <c r="B221" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="16"/>
+      <c r="B222" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="16"/>
+      <c r="B223" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="E223" s="17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="16"/>
+      <c r="B224" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="16"/>
+      <c r="B225" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="16"/>
+      <c r="B226" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="16"/>
+      <c r="B227" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="16"/>
+      <c r="B228" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="16"/>
+      <c r="B229" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="E229" s="17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="16"/>
+      <c r="B230" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="16"/>
+      <c r="B231" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="E231" s="17" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="16"/>
+      <c r="B232" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="E232" s="17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="16"/>
+      <c r="B233" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E233" s="17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="16"/>
+      <c r="B234" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="16"/>
+      <c r="B235" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E235" s="17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="16"/>
+      <c r="B236" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="16"/>
+      <c r="B237" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="E237" s="17" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="16"/>
+      <c r="B238" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="16"/>
+      <c r="B239" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="E239" s="17" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="16"/>
+      <c r="B240" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="16"/>
+      <c r="B241" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="16"/>
+      <c r="B242" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="16"/>
+      <c r="B243" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E243" s="17" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="16"/>
+      <c r="B244" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="16"/>
+      <c r="B245" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="E245" s="17" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="16"/>
+      <c r="B246" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E246" s="17" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="16"/>
+      <c r="B247" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="16"/>
+      <c r="B248" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="16"/>
+      <c r="B249" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="16"/>
+      <c r="B250" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="16"/>
+      <c r="B251" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="16"/>
+      <c r="B252" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="16"/>
+      <c r="B253" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="E253" s="17" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="16"/>
+      <c r="B254" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="16"/>
+      <c r="B255" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E255" s="17" t="s">
+        <v>952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -746,43 +7401,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -796,9 +7439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -806,7 +7447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -816,55 +7457,55 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
